--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200214.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A860F45D-8226-42FF-AF49-A188CFBA097F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27B2B7-C202-43C2-9C4F-781EBD7DF804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="2220" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="2090" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10768,10 +10768,10 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11135,6 +11135,9 @@
       <c r="P5" s="13">
         <v>19</v>
       </c>
+      <c r="Q5" s="13">
+        <v>-2</v>
+      </c>
       <c r="S5" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11188,6 +11191,9 @@
       <c r="P6" s="13">
         <v>32</v>
       </c>
+      <c r="Q6" s="13">
+        <v>-12</v>
+      </c>
       <c r="S6" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11400,6 +11406,9 @@
       <c r="P10" s="13">
         <v>28</v>
       </c>
+      <c r="Q10" s="13">
+        <v>-5</v>
+      </c>
       <c r="S10" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11553,6 +11562,9 @@
       <c r="P13" s="13">
         <v>2</v>
       </c>
+      <c r="Q13" s="13">
+        <v>-1</v>
+      </c>
       <c r="S13" s="13" t="s">
         <v>3290</v>
       </c>
@@ -11649,6 +11661,9 @@
       </c>
       <c r="P15" s="13">
         <v>10</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>-2</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>3290</v>
